--- a/data/trans_orig/cron_prev_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.5060238094806722</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6514965823554714</v>
+        <v>0.6514965823554715</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4840117501012358</v>
@@ -681,7 +681,7 @@
         <v>0.5695807163765482</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6119429576645027</v>
+        <v>0.6119429576645028</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4366308519852354</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3111521413967591</v>
+        <v>0.3053303996888124</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3814901222862028</v>
+        <v>0.3853663304026058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4014053624898452</v>
+        <v>0.4135088944847843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5555738842027548</v>
+        <v>0.5619413017149197</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3892226568338949</v>
+        <v>0.392875838254236</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5234630285994597</v>
+        <v>0.5208276206929348</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4676426539267343</v>
+        <v>0.4657596275912097</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5421942891781322</v>
+        <v>0.5394791064857486</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3735602640222927</v>
+        <v>0.3738464452820852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4725475977149897</v>
+        <v>0.4729656356971065</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4624049854243005</v>
+        <v>0.4566264089189843</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5776595841888013</v>
+        <v>0.5682887209415682</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4891688476284481</v>
+        <v>0.4891425694394677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5965411864006136</v>
+        <v>0.604406762498466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6132283664496037</v>
+        <v>0.622773066051949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7578309623666596</v>
+        <v>0.7588815602093538</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6013172037041057</v>
+        <v>0.5995477485768284</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.736289969680118</v>
+        <v>0.7516544879174412</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.721438656194668</v>
+        <v>0.6991756531420473</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.698010029683753</v>
+        <v>0.6911596455347903</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5134843227886743</v>
+        <v>0.5008863792346029</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6293404807010772</v>
+        <v>0.629322996668306</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6216921276421895</v>
+        <v>0.6246424944119686</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6980231284681321</v>
+        <v>0.6950062482313085</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>0.6202135010783801</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.634369707616529</v>
+        <v>0.6343697076165289</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3351479619238297</v>
+        <v>0.3373059431230916</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4365302996083479</v>
+        <v>0.4429693897062631</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4325364344898452</v>
+        <v>0.4364134481334121</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5322132961546882</v>
+        <v>0.5352117989585714</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6178660477548781</v>
+        <v>0.62838292488299</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6247517156404733</v>
+        <v>0.6367253975648747</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6531347917930383</v>
+        <v>0.6455853290305562</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5806380562804175</v>
+        <v>0.5843388476054688</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5042427413841951</v>
+        <v>0.5008381702772844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5628748568447862</v>
+        <v>0.5680716847511741</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5634989152641652</v>
+        <v>0.5666439826648314</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5782745488790639</v>
+        <v>0.5801506631830703</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4731777161326058</v>
+        <v>0.4741473774576696</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6407660755958903</v>
+        <v>0.6320879995022343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5849678189590889</v>
+        <v>0.5869385474721824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7084997875580817</v>
+        <v>0.7127013943391336</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8063334554199304</v>
+        <v>0.8123499034685652</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8228042698302732</v>
+        <v>0.8220853303903346</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.823030153837678</v>
+        <v>0.8190699923391594</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7309992851469223</v>
+        <v>0.7323039616785333</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6164145008160976</v>
+        <v>0.616162496681508</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6938532983352668</v>
+        <v>0.6993082026565396</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6868152048622168</v>
+        <v>0.6794737207817594</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6926409392560204</v>
+        <v>0.6948670741732014</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.5496505794526821</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.8500673271836764</v>
+        <v>0.8500673271836765</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5313229945145777</v>
@@ -965,7 +965,7 @@
         <v>0.5224439399428603</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7897388100904165</v>
+        <v>0.7897388100904164</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3281274714165152</v>
+        <v>0.3346893742667922</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4923710907838589</v>
+        <v>0.4868560378155949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4124869211841669</v>
+        <v>0.4244784125085571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6044061704520527</v>
+        <v>0.6246625082861695</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5522326918694942</v>
+        <v>0.5557143068491897</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.665717270676714</v>
+        <v>0.6589440859922328</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4669897149586472</v>
+        <v>0.4510128599937511</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7511391445476855</v>
+        <v>0.7511457116746383</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.468899989563726</v>
+        <v>0.4705358461676439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6108253026236732</v>
+        <v>0.6100815798058871</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4642357860556898</v>
+        <v>0.4582928189327689</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7217140230061322</v>
+        <v>0.710619512498969</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4893625791599057</v>
+        <v>0.490391449608324</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7127452353298604</v>
+        <v>0.7102761096548731</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5791725500501164</v>
+        <v>0.5836915203595189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8297819086569089</v>
+        <v>0.8554418941730063</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7669989536337245</v>
+        <v>0.7708421228601031</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9065543310458921</v>
+        <v>0.9187905648069713</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6650400745976466</v>
+        <v>0.6713582043565232</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.955532838458665</v>
+        <v>0.9515797858726662</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5954037171867619</v>
+        <v>0.5964897007086977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7700089377792001</v>
+        <v>0.7770102545579665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5967376749913967</v>
+        <v>0.5949582686885579</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8734764622276607</v>
+        <v>0.8640938426906507</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.7707646416596874</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8010537937423767</v>
+        <v>0.8010537937423768</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.5268989456924131</v>
@@ -1101,7 +1101,7 @@
         <v>0.6868126129264629</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.730572146451937</v>
+        <v>0.7305721464519369</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3632515460196061</v>
+        <v>0.3661801771810746</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4519676044842909</v>
+        <v>0.461098104174121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5093940381389868</v>
+        <v>0.4993137169673014</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5474960218151066</v>
+        <v>0.5320254199853595</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5278904020953703</v>
+        <v>0.5314637027744951</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6687507137429041</v>
+        <v>0.6586615967449979</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6579561792875669</v>
+        <v>0.6702096086721823</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7097839682359049</v>
+        <v>0.7135649183053595</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4713400329444787</v>
+        <v>0.4683160271261712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5879615104780833</v>
+        <v>0.5920187157286019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6172390913376381</v>
+        <v>0.6241056091967835</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6567576381660374</v>
+        <v>0.658828844647552</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5235411726302655</v>
+        <v>0.528918048579366</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6534838703845969</v>
+        <v>0.6475510350982585</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7058280011367092</v>
+        <v>0.7016337420781785</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7758038490264613</v>
+        <v>0.766662122519482</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7069772851272815</v>
+        <v>0.7082458837136273</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8929270996854224</v>
+        <v>0.8919917588168208</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8846320156379968</v>
+        <v>0.8849909714837988</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8941322792647585</v>
+        <v>0.9013519713680682</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5888486841201462</v>
+        <v>0.5801019725103345</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7458894693514478</v>
+        <v>0.7462940912294362</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7620222579905129</v>
+        <v>0.7701086357569721</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8045860441760837</v>
+        <v>0.8130371628418713</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3606139701824166</v>
+        <v>0.3521452486143242</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4771391703661398</v>
+        <v>0.4824133409209775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3706259697111083</v>
+        <v>0.3734861808346023</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5869369536149521</v>
+        <v>0.5986621431309618</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5757392373664069</v>
+        <v>0.5681364185386032</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8162016245917084</v>
+        <v>0.8144946709182767</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.561338027316768</v>
+        <v>0.5580623850400085</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8926141550795244</v>
+        <v>0.891774600706291</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4944255946323888</v>
+        <v>0.4994062959293669</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.683876129929098</v>
+        <v>0.6888707396181539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4989591606756013</v>
+        <v>0.5026935980412623</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7857944080272835</v>
+        <v>0.7801076238191919</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5788141096741428</v>
+        <v>0.5761687431974172</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7829436907973252</v>
+        <v>0.780050284419775</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5876721415663562</v>
+        <v>0.5834220894923691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8360662655584773</v>
+        <v>0.8349095929187234</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8976124458178393</v>
+        <v>0.8963773483564401</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.15233786756708</v>
+        <v>1.160967579572139</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8627623517062424</v>
+        <v>0.855368281780103</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.133966801512514</v>
+        <v>1.134713804945346</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.709322943854242</v>
+        <v>0.7021378035724044</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9092839266551855</v>
+        <v>0.9163742647603369</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6836083594033071</v>
+        <v>0.6828316249573929</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9539268375511112</v>
+        <v>0.9450506325870439</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>0.482527899296918</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9589977523265056</v>
+        <v>0.9589977523265057</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.6489523664357911</v>
@@ -1361,7 +1361,7 @@
         <v>0.6539169566525836</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9825597518158377</v>
+        <v>0.9825597518158371</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5405659179008211</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3464771972838014</v>
+        <v>0.3501212431612541</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5790217866725974</v>
+        <v>0.5854207848190702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3852029943412977</v>
+        <v>0.3854347056203287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8359871757444352</v>
+        <v>0.8456825376292975</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5560793564773732</v>
+        <v>0.5519087473895167</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.728180435530736</v>
+        <v>0.7146947513565355</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.544901520840909</v>
+        <v>0.5437002175950109</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8684629420110386</v>
+        <v>0.8790330020368567</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4709033990624966</v>
+        <v>0.4780649065572656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6870715709979178</v>
+        <v>0.6855950384147032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4962861954719995</v>
+        <v>0.4983112661766042</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.896390151166309</v>
+        <v>0.8898489372954341</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5186414690842955</v>
+        <v>0.5275668228679001</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8239977494810712</v>
+        <v>0.8598501571248185</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5862360755165256</v>
+        <v>0.5925326740785116</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.078113906783946</v>
+        <v>1.090614799981022</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7845569077300321</v>
+        <v>0.778608969233867</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9910055086498691</v>
+        <v>0.9744566162712033</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.785942451110857</v>
+        <v>0.7866819550554408</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>1.085994996647903</v>
+        <v>1.111568260750611</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6130147413149879</v>
+        <v>0.6088109922793168</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8626192432170957</v>
+        <v>0.8733362312046551</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6522219587791059</v>
+        <v>0.659262292862329</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.055416629586324</v>
+        <v>1.055642251903081</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>0.5433758315505254</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8107339133376377</v>
+        <v>0.8107339133376378</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3672758231125337</v>
+        <v>0.3708966641656829</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4886349885636566</v>
+        <v>0.4896910822336505</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4452051501188841</v>
+        <v>0.4460325324526782</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6508727301397785</v>
+        <v>0.6475298126033917</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.53647178487876</v>
+        <v>0.5405201235684552</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6219297289135025</v>
+        <v>0.6222008468431837</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4929631584547797</v>
+        <v>0.4968061025968104</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8131630794366673</v>
+        <v>0.8194809223093682</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4772568039202653</v>
+        <v>0.4710172790065784</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5788172294125724</v>
+        <v>0.5776723567965827</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4947489477132999</v>
+        <v>0.4921076110844068</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7583840084951741</v>
+        <v>0.7529040915051415</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4968426725127076</v>
+        <v>0.499945018784624</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6423662661175803</v>
+        <v>0.6383324135507005</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5955798740727424</v>
+        <v>0.5942518909265276</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8258247241518768</v>
+        <v>0.8226157187212908</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.690687976990971</v>
+        <v>0.6904774479692087</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7804912594572551</v>
+        <v>0.7788204626458257</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6485797169362353</v>
+        <v>0.6539069386173731</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.961537481618726</v>
+        <v>0.9659191017587171</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5787879301266994</v>
+        <v>0.5780565441107014</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6870711920092034</v>
+        <v>0.6925658338554803</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5984400087430796</v>
+        <v>0.6020527080353483</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8669530330095802</v>
+        <v>0.865348266547262</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.5387394330167777</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5279310592873081</v>
+        <v>0.527931059287308</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.6994016632323422</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.486816846552295</v>
+        <v>0.4887652192308288</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3720619432462514</v>
+        <v>0.3756059527650892</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4724838658830235</v>
+        <v>0.4764203855111114</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4686134096136208</v>
+        <v>0.4727551298253617</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6198035922424948</v>
+        <v>0.6256545761628499</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4998153408655334</v>
+        <v>0.4897430973403114</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6042401068163091</v>
+        <v>0.6064323590314277</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6352579084253728</v>
+        <v>0.6301598378192919</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5848090208997848</v>
+        <v>0.5800268035171318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4527887179877805</v>
+        <v>0.4528408777963017</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5633670889993002</v>
+        <v>0.5593938862899236</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5674406210220311</v>
+        <v>0.569116622037167</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6332558280784363</v>
+        <v>0.6291981893799102</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4930731224954119</v>
+        <v>0.499141212989821</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6045653403305017</v>
+        <v>0.6075664829126508</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.593099797013513</v>
+        <v>0.5942324954354906</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7737116492139562</v>
+        <v>0.7787162605023662</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6372721687816486</v>
+        <v>0.6321088851296743</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7650315347131429</v>
+        <v>0.7554367758495181</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7663374318444647</v>
+        <v>0.7607185890068056</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.688705079333738</v>
+        <v>0.6901507111927127</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5460608253033633</v>
+        <v>0.5481765772956302</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.6607364420806084</v>
+        <v>0.6619236575029431</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.6592929979090882</v>
+        <v>0.660883993897008</v>
       </c>
     </row>
     <row r="28">
@@ -1769,7 +1769,7 @@
         <v>0.6538283830799925</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.7890001331569906</v>
+        <v>0.7890001331569905</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.5522916427951372</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4237657938785447</v>
+        <v>0.4253481357657214</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5039524872747557</v>
+        <v>0.5030914438584071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4915932494561104</v>
+        <v>0.4907760365877032</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6309818730046102</v>
+        <v>0.6352255731819845</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6157169641580758</v>
+        <v>0.6174275684254669</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6699446256311937</v>
+        <v>0.6728352965507102</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6161107934315507</v>
+        <v>0.6197571433691604</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7569765137863683</v>
+        <v>0.757118536123594</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5291684973396765</v>
+        <v>0.5312878104321391</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5971820292311648</v>
+        <v>0.5992093403241054</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.5649217297973197</v>
+        <v>0.5649935164016585</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7090048513544225</v>
+        <v>0.7072067191602781</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4787891202888065</v>
+        <v>0.4814636860907485</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5675987340636762</v>
+        <v>0.568506932362371</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5482944037238051</v>
+        <v>0.5528740100785009</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.6987427365049179</v>
+        <v>0.7000688675404154</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6855296412286035</v>
+        <v>0.6834543440380882</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7422908459994652</v>
+        <v>0.7480878500524206</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6879202362833139</v>
+        <v>0.6896769905393018</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8191131866312333</v>
+        <v>0.8218553914838364</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5745569864761132</v>
+        <v>0.5754508310523667</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6483475748762936</v>
+        <v>0.6487097490579401</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.6110738834184224</v>
+        <v>0.611021247964156</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7513594766897712</v>
+        <v>0.7524856168970261</v>
       </c>
     </row>
     <row r="31">
